--- a/natmiOut/OldD2/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H2">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I2">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J2">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N2">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O2">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P2">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q2">
-        <v>1013.683093784742</v>
+        <v>1022.372153380412</v>
       </c>
       <c r="R2">
-        <v>1013.683093784742</v>
+        <v>4089.48861352165</v>
       </c>
       <c r="S2">
-        <v>0.04334041379292299</v>
+        <v>0.04145122955571804</v>
       </c>
       <c r="T2">
-        <v>0.04334041379292299</v>
+        <v>0.02426902015530919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H3">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I3">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J3">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N3">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O3">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P3">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q3">
-        <v>175.0165661199543</v>
+        <v>180.6971405181567</v>
       </c>
       <c r="R3">
-        <v>175.0165661199543</v>
+        <v>1084.18284310894</v>
       </c>
       <c r="S3">
-        <v>0.007482901157929382</v>
+        <v>0.007326215436242392</v>
       </c>
       <c r="T3">
-        <v>0.007482901157929382</v>
+        <v>0.006434069820967847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H4">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I4">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J4">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N4">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O4">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P4">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q4">
-        <v>369.5915633354267</v>
+        <v>418.2506168954699</v>
       </c>
       <c r="R4">
-        <v>369.5915633354267</v>
+        <v>2509.50370137282</v>
       </c>
       <c r="S4">
-        <v>0.01580203062233591</v>
+        <v>0.01695762377274366</v>
       </c>
       <c r="T4">
-        <v>0.01580203062233591</v>
+        <v>0.01489261902015504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H5">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I5">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J5">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N5">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O5">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P5">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q5">
-        <v>538.0087601083469</v>
+        <v>539.2528744396041</v>
       </c>
       <c r="R5">
-        <v>538.0087601083469</v>
+        <v>3235.517246637624</v>
       </c>
       <c r="S5">
-        <v>0.02300277318452025</v>
+        <v>0.02186355977426515</v>
       </c>
       <c r="T5">
-        <v>0.02300277318452025</v>
+        <v>0.01920113752410704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H6">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I6">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J6">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N6">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O6">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P6">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q6">
-        <v>488.138849336051</v>
+        <v>500.2445650379957</v>
       </c>
       <c r="R6">
-        <v>488.138849336051</v>
+        <v>3001.467390227974</v>
       </c>
       <c r="S6">
-        <v>0.02087056580931623</v>
+        <v>0.02028200027830254</v>
       </c>
       <c r="T6">
-        <v>0.02087056580931623</v>
+        <v>0.01781217151408518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H7">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I7">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J7">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N7">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O7">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P7">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q7">
-        <v>469.9406484189379</v>
+        <v>485.3326219933937</v>
       </c>
       <c r="R7">
-        <v>469.9406484189379</v>
+        <v>1941.330487973575</v>
       </c>
       <c r="S7">
-        <v>0.02009249467162997</v>
+        <v>0.01967740793663926</v>
       </c>
       <c r="T7">
-        <v>0.02009249467162997</v>
+        <v>0.01152080203499447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H8">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I8">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J8">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N8">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O8">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P8">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q8">
-        <v>1500.577405206571</v>
+        <v>1612.890704898305</v>
       </c>
       <c r="R8">
-        <v>1500.577405206571</v>
+        <v>9677.34422938983</v>
       </c>
       <c r="S8">
-        <v>0.06415776890107032</v>
+        <v>0.06539331361478025</v>
       </c>
       <c r="T8">
-        <v>0.06415776890107032</v>
+        <v>0.05743008095838133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H9">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I9">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J9">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N9">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O9">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P9">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q9">
-        <v>259.0808767224192</v>
+        <v>285.0671718510653</v>
       </c>
       <c r="R9">
-        <v>259.0808767224192</v>
+        <v>2565.604546659588</v>
       </c>
       <c r="S9">
-        <v>0.01107710335886035</v>
+        <v>0.01155781164434855</v>
       </c>
       <c r="T9">
-        <v>0.01107710335886035</v>
+        <v>0.01522554880029741</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H10">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I10">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J10">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N10">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O10">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P10">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q10">
-        <v>547.1145296755689</v>
+        <v>659.830698711996</v>
       </c>
       <c r="R10">
-        <v>547.1145296755689</v>
+        <v>5938.476288407964</v>
       </c>
       <c r="S10">
-        <v>0.02339209389369074</v>
+        <v>0.02675228748140979</v>
       </c>
       <c r="T10">
-        <v>0.02339209389369074</v>
+        <v>0.03524181489555226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H11">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I11">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J11">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N11">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O11">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P11">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q11">
-        <v>796.4262146343193</v>
+        <v>850.7234336318081</v>
       </c>
       <c r="R11">
-        <v>796.4262146343193</v>
+        <v>7656.510902686275</v>
       </c>
       <c r="S11">
-        <v>0.03405151167008864</v>
+        <v>0.03449187482200487</v>
       </c>
       <c r="T11">
-        <v>0.03405151167008864</v>
+        <v>0.04543747029940327</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H12">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I12">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J12">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N12">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O12">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P12">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q12">
-        <v>722.6026875740307</v>
+        <v>789.1840622398715</v>
       </c>
       <c r="R12">
-        <v>722.6026875740307</v>
+        <v>7102.656560158845</v>
       </c>
       <c r="S12">
-        <v>0.03089515814099901</v>
+        <v>0.03199681213681003</v>
       </c>
       <c r="T12">
-        <v>0.03089515814099901</v>
+        <v>0.04215062847828652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.52342071689991</v>
+        <v>79.43194699999999</v>
       </c>
       <c r="H13">
-        <v>74.52342071689991</v>
+        <v>238.295841</v>
       </c>
       <c r="I13">
-        <v>0.1933169982673301</v>
+        <v>0.2012351090893876</v>
       </c>
       <c r="J13">
-        <v>0.1933169982673301</v>
+        <v>0.2227483084443135</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N13">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O13">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P13">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q13">
-        <v>695.6634900288971</v>
+        <v>765.6590334633274</v>
       </c>
       <c r="R13">
-        <v>695.6634900288971</v>
+        <v>4593.954200779966</v>
       </c>
       <c r="S13">
-        <v>0.02974336230262103</v>
+        <v>0.03104300939003416</v>
       </c>
       <c r="T13">
-        <v>0.02974336230262103</v>
+        <v>0.0272627650123927</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H14">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I14">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J14">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N14">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O14">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P14">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q14">
-        <v>1660.349796463184</v>
+        <v>1691.167890508016</v>
       </c>
       <c r="R14">
-        <v>1660.349796463184</v>
+        <v>10147.0073430481</v>
       </c>
       <c r="S14">
-        <v>0.07098889945084826</v>
+        <v>0.06856699707139176</v>
       </c>
       <c r="T14">
-        <v>0.07098889945084826</v>
+        <v>0.06021729096158078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H15">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I15">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J15">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N15">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O15">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P15">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q15">
-        <v>286.6662389031208</v>
+        <v>298.9021179230177</v>
       </c>
       <c r="R15">
-        <v>286.6662389031208</v>
+        <v>2690.11906130716</v>
       </c>
       <c r="S15">
-        <v>0.01225652621682224</v>
+        <v>0.01211873803854201</v>
       </c>
       <c r="T15">
-        <v>0.01225652621682224</v>
+        <v>0.01596447866444201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H16">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I16">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J16">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N16">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O16">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P16">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q16">
-        <v>605.3679702473127</v>
+        <v>691.8537551517198</v>
       </c>
       <c r="R16">
-        <v>605.3679702473127</v>
+        <v>6226.68379636548</v>
       </c>
       <c r="S16">
-        <v>0.02588274233670103</v>
+        <v>0.02805063569949237</v>
       </c>
       <c r="T16">
-        <v>0.02588274233670103</v>
+        <v>0.03695217882624165</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H17">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I17">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J17">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N17">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O17">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P17">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q17">
-        <v>881.2248530318236</v>
+        <v>892.0109405376942</v>
       </c>
       <c r="R17">
-        <v>881.2248530318236</v>
+        <v>8028.098464839249</v>
       </c>
       <c r="S17">
-        <v>0.03767711034067742</v>
+        <v>0.03616584248718479</v>
       </c>
       <c r="T17">
-        <v>0.03767711034067742</v>
+        <v>0.04764265214183096</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H18">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I18">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J18">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N18">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O18">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P18">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q18">
-        <v>799.5410440503928</v>
+        <v>827.4849261065719</v>
       </c>
       <c r="R18">
-        <v>799.5410440503928</v>
+        <v>7447.364334959148</v>
       </c>
       <c r="S18">
-        <v>0.03418468740974013</v>
+        <v>0.03354968884131685</v>
       </c>
       <c r="T18">
-        <v>0.03418468740974013</v>
+        <v>0.04419629255145684</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.4582230744781</v>
+        <v>83.28695666666665</v>
       </c>
       <c r="H19">
-        <v>82.4582230744781</v>
+        <v>249.86087</v>
       </c>
       <c r="I19">
-        <v>0.21390022108313</v>
+        <v>0.2110014980564403</v>
       </c>
       <c r="J19">
-        <v>0.21390022108313</v>
+        <v>0.2335587809899062</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N19">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O19">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P19">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q19">
-        <v>769.7335239546289</v>
+        <v>802.8181751795915</v>
       </c>
       <c r="R19">
-        <v>769.7335239546289</v>
+        <v>4816.90905107755</v>
       </c>
       <c r="S19">
-        <v>0.03291025532834092</v>
+        <v>0.03254959591851251</v>
       </c>
       <c r="T19">
-        <v>0.03291025532834092</v>
+        <v>0.02858588784435394</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H20">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I20">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J20">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N20">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O20">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P20">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q20">
-        <v>1466.363136108248</v>
+        <v>1488.765241579357</v>
       </c>
       <c r="R20">
-        <v>1466.363136108248</v>
+        <v>8932.59144947614</v>
       </c>
       <c r="S20">
-        <v>0.0626949245570779</v>
+        <v>0.06036074982992808</v>
       </c>
       <c r="T20">
-        <v>0.0626949245570779</v>
+        <v>0.0530103546956193</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H21">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I21">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J21">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N21">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O21">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P21">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q21">
-        <v>253.1736420781724</v>
+        <v>263.1288627793004</v>
       </c>
       <c r="R21">
-        <v>253.1736420781724</v>
+        <v>2368.159765013704</v>
       </c>
       <c r="S21">
-        <v>0.01082453725075091</v>
+        <v>0.01066834112973091</v>
       </c>
       <c r="T21">
-        <v>0.01082453725075091</v>
+        <v>0.0140538151587167</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H22">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I22">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J22">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N22">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O22">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P22">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q22">
-        <v>534.6399157829617</v>
+        <v>609.0511939749679</v>
       </c>
       <c r="R22">
-        <v>534.6399157829617</v>
+        <v>5481.460745774712</v>
       </c>
       <c r="S22">
-        <v>0.02285873693891119</v>
+        <v>0.0246934746502694</v>
       </c>
       <c r="T22">
-        <v>0.02285873693891119</v>
+        <v>0.03252966174789874</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H23">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I23">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J23">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N23">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O23">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P23">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q23">
-        <v>778.2671108587256</v>
+        <v>785.2531323676609</v>
       </c>
       <c r="R23">
-        <v>778.2671108587256</v>
+        <v>7067.278191308949</v>
       </c>
       <c r="S23">
-        <v>0.03327511214585036</v>
+        <v>0.03183743585102049</v>
       </c>
       <c r="T23">
-        <v>0.03327511214585036</v>
+        <v>0.04194067598108647</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H24">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I24">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J24">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N24">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O24">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P24">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q24">
-        <v>706.1268145413924</v>
+        <v>728.4497315924453</v>
       </c>
       <c r="R24">
-        <v>706.1268145413924</v>
+        <v>6556.047584332009</v>
       </c>
       <c r="S24">
-        <v>0.03019072579995236</v>
+        <v>0.0295343891597607</v>
       </c>
       <c r="T24">
-        <v>0.03019072579995236</v>
+        <v>0.03890678419723088</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>72.82423188352909</v>
+        <v>73.31899266666666</v>
       </c>
       <c r="H25">
-        <v>72.82423188352909</v>
+        <v>219.956978</v>
       </c>
       <c r="I25">
-        <v>0.1889092284468269</v>
+        <v>0.1857483801523923</v>
       </c>
       <c r="J25">
-        <v>0.1889092284468269</v>
+        <v>0.2056059584356031</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N25">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O25">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P25">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q25">
-        <v>679.8018505245686</v>
+        <v>706.7351510301617</v>
       </c>
       <c r="R25">
-        <v>679.8018505245686</v>
+        <v>4240.41090618097</v>
       </c>
       <c r="S25">
-        <v>0.0290651917542842</v>
+        <v>0.02865398953168275</v>
       </c>
       <c r="T25">
-        <v>0.0290651917542842</v>
+        <v>0.02516466665505098</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H26">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I26">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J26">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N26">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O26">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P26">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q26">
-        <v>841.7048311667413</v>
+        <v>899.8612705679084</v>
       </c>
       <c r="R26">
-        <v>841.7048311667413</v>
+        <v>5399.16762340745</v>
       </c>
       <c r="S26">
-        <v>0.03598741647950926</v>
+        <v>0.03648412759608043</v>
       </c>
       <c r="T26">
-        <v>0.03598741647950926</v>
+        <v>0.03204129421979978</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H27">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I27">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J27">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N27">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O27">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P27">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q27">
-        <v>145.3238099171269</v>
+        <v>159.0441972788689</v>
       </c>
       <c r="R27">
-        <v>145.3238099171269</v>
+        <v>1431.39777550982</v>
       </c>
       <c r="S27">
-        <v>0.006213375851279457</v>
+        <v>0.006448314842216054</v>
       </c>
       <c r="T27">
-        <v>0.006213375851279457</v>
+        <v>0.008494612590251846</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H28">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I28">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J28">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N28">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O28">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P28">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q28">
-        <v>306.8878294659193</v>
+        <v>368.13163415194</v>
       </c>
       <c r="R28">
-        <v>306.8878294659193</v>
+        <v>3313.18470736746</v>
       </c>
       <c r="S28">
-        <v>0.01312110816350396</v>
+        <v>0.01492559125705744</v>
       </c>
       <c r="T28">
-        <v>0.01312110816350396</v>
+        <v>0.01966205411979867</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H29">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I29">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J29">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N29">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O29">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P29">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q29">
-        <v>446.731898134415</v>
+        <v>474.6341878993472</v>
       </c>
       <c r="R29">
-        <v>446.731898134415</v>
+        <v>4271.707691094124</v>
       </c>
       <c r="S29">
-        <v>0.01910019555259046</v>
+        <v>0.01924364881472581</v>
       </c>
       <c r="T29">
-        <v>0.01910019555259046</v>
+        <v>0.02535039704230339</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H30">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I30">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J30">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N30">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O30">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P30">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q30">
-        <v>405.322758449375</v>
+        <v>440.3002452691861</v>
       </c>
       <c r="R30">
-        <v>405.322758449375</v>
+        <v>3962.702207422674</v>
       </c>
       <c r="S30">
-        <v>0.01732973172640803</v>
+        <v>0.01785160763597306</v>
       </c>
       <c r="T30">
-        <v>0.01732973172640803</v>
+        <v>0.02351660777913547</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.8017244794188</v>
+        <v>44.31653833333333</v>
       </c>
       <c r="H31">
-        <v>41.8017244794188</v>
+        <v>132.949615</v>
       </c>
       <c r="I31">
-        <v>0.1084354934465141</v>
+        <v>0.1122727537570288</v>
       </c>
       <c r="J31">
-        <v>0.1084354934465141</v>
+        <v>0.124275361774244</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N31">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O31">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P31">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q31">
-        <v>390.2120066528873</v>
+        <v>427.1752007632459</v>
       </c>
       <c r="R31">
-        <v>390.2120066528873</v>
+        <v>2563.051204579475</v>
       </c>
       <c r="S31">
-        <v>0.01668366567322296</v>
+        <v>0.01731946361097602</v>
       </c>
       <c r="T31">
-        <v>0.01668366567322296</v>
+        <v>0.01521039602295484</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H32">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I32">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J32">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N32">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O32">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P32">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q32">
-        <v>1279.584852547551</v>
+        <v>1299.899533617527</v>
       </c>
       <c r="R32">
-        <v>1279.584852547551</v>
+        <v>5199.598134470109</v>
       </c>
       <c r="S32">
-        <v>0.05470914660863803</v>
+        <v>0.0527033466132581</v>
       </c>
       <c r="T32">
-        <v>0.05470914660863803</v>
+        <v>0.03085695152878683</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H33">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I33">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J33">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N33">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O33">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P33">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q33">
-        <v>220.9256012308877</v>
+        <v>229.7481674446327</v>
       </c>
       <c r="R33">
-        <v>220.9256012308877</v>
+        <v>1378.489004667796</v>
       </c>
       <c r="S33">
-        <v>0.009445759758157953</v>
+        <v>0.009314948570600879</v>
       </c>
       <c r="T33">
-        <v>0.009445759758157953</v>
+        <v>0.008180626136857135</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H34">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I34">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J34">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N34">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O34">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P34">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q34">
-        <v>466.5400547498994</v>
+        <v>531.7865711032979</v>
       </c>
       <c r="R34">
-        <v>466.5400547498994</v>
+        <v>3190.719426619788</v>
       </c>
       <c r="S34">
-        <v>0.01994710097052024</v>
+        <v>0.02156084470861851</v>
       </c>
       <c r="T34">
-        <v>0.01994710097052024</v>
+        <v>0.01893528540916728</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H35">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I35">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J35">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N35">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O35">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P35">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q35">
-        <v>679.1351894823248</v>
+        <v>685.635419224029</v>
       </c>
       <c r="R35">
-        <v>679.1351894823248</v>
+        <v>4113.812515344174</v>
       </c>
       <c r="S35">
-        <v>0.02903668840288412</v>
+        <v>0.02779851843559681</v>
       </c>
       <c r="T35">
-        <v>0.02903668840288412</v>
+        <v>0.02441337005315089</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H36">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I36">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J36">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N36">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O36">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P36">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q36">
-        <v>616.1837771391704</v>
+        <v>636.0381340958107</v>
       </c>
       <c r="R36">
-        <v>616.1837771391704</v>
+        <v>3816.228804574864</v>
       </c>
       <c r="S36">
-        <v>0.02634517635485878</v>
+        <v>0.02578763771628871</v>
       </c>
       <c r="T36">
-        <v>0.02634517635485878</v>
+        <v>0.02264736316156235</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.5482314864299</v>
+        <v>64.01769849999999</v>
       </c>
       <c r="H37">
-        <v>63.5482314864299</v>
+        <v>128.035397</v>
       </c>
       <c r="I37">
-        <v>0.1648468795175442</v>
+        <v>0.16218422219084</v>
       </c>
       <c r="J37">
-        <v>0.1648468795175442</v>
+        <v>0.1196817702863145</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N37">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O37">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P37">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q37">
-        <v>593.2119604245279</v>
+        <v>617.0782790714762</v>
       </c>
       <c r="R37">
-        <v>593.2119604245279</v>
+        <v>2468.313116285905</v>
       </c>
       <c r="S37">
-        <v>0.02536300742248512</v>
+        <v>0.02501892614647701</v>
       </c>
       <c r="T37">
-        <v>0.02536300742248512</v>
+        <v>0.01464817399679002</v>
       </c>
     </row>
   </sheetData>
